--- a/ControlProductos/Control de Productos Guia.xlsx
+++ b/ControlProductos/Control de Productos Guia.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tania\Documents\Visual Studio 2012\Projects\ControlProductos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tania\Documents\Visual Studio 2012\Projects\ControlProductos\ControlProductos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>Tecnologia</t>
   </si>
@@ -120,6 +120,42 @@
   </si>
   <si>
     <t>Infomatica computacion</t>
+  </si>
+  <si>
+    <t>USE [ControlDeProductos]</t>
+  </si>
+  <si>
+    <t>GO</t>
+  </si>
+  <si>
+    <t>INSERT INTO [dbo].[Rubros]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           ([IdRubro]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           ,[Nombre]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           ,[Descripcion]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           ,[IdFlia])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     VALUES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           ('8'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           ,'Pequeños Electrdomesticos'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           ,'Tostadoras, Mixer, Licuadora'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           ,'')</t>
   </si>
 </sst>
 </file>
@@ -514,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,7 +584,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -612,7 +648,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>8</v>
@@ -664,7 +700,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>19</v>
@@ -740,7 +776,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>20</v>
@@ -792,7 +828,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>25</v>
@@ -834,6 +870,71 @@
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
     </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
